--- a/config_4.13/activity_ty_task_config.xlsx
+++ b/config_4.13/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="157">
   <si>
     <t>index|索引</t>
   </si>
@@ -717,11 +717,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"美的多功能锅/美的电烤箱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"琥珀核桃500g",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1584,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2402,7 @@
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2476,7 +2480,7 @@
         <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2688,7 +2692,7 @@
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2764,7 +2768,7 @@
         <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">

--- a/config_4.13/activity_ty_task_config.xlsx
+++ b/config_4.13/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
   <si>
     <t>index|索引</t>
   </si>
@@ -665,68 +665,61 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ltfl_bg_1</t>
-  </si>
-  <si>
-    <t>ltfl_bg_1</t>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"",""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"琥珀核桃500g",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的多功能锅","美的电烤箱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlfl_bg_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ltfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
-  </si>
-  <si>
-    <t>"","","请在苹果大战中使用"</t>
-  </si>
-  <si>
-    <t>"",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","请在苹果大战中使用"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"",""</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"琥珀核桃500g",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"美的多功能锅","美的电烤箱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"美的多功能锅","美的电烤箱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1257,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1334,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>86</v>
@@ -1358,7 +1351,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>87</v>
@@ -1375,7 +1368,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>88</v>
@@ -1392,7 +1385,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>89</v>
@@ -1588,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
@@ -2271,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>98</v>
@@ -2280,7 +2273,7 @@
         <v>73</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -2300,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>99</v>
@@ -2309,7 +2302,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -2329,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>92</v>
@@ -2338,7 +2331,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -2358,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>93</v>
@@ -2367,7 +2360,7 @@
         <v>74</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -2396,13 +2389,13 @@
         <v>74</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>71</v>
@@ -2434,7 +2427,7 @@
         <v>75</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>70</v>
@@ -2463,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>137</v>
@@ -2472,7 +2465,7 @@
         <v>75</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2480,7 +2473,7 @@
         <v>130</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2501,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>97</v>
@@ -2510,7 +2503,7 @@
         <v>76</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2532,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>96</v>
@@ -2541,7 +2534,7 @@
         <v>72</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -2561,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>98</v>
@@ -2570,7 +2563,7 @@
         <v>73</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2590,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>99</v>
@@ -2599,7 +2592,7 @@
         <v>72</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2619,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>92</v>
@@ -2628,7 +2621,7 @@
         <v>73</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2648,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>93</v>
@@ -2657,7 +2650,7 @@
         <v>72</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2686,13 +2679,13 @@
         <v>72</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>71</v>
@@ -2724,7 +2717,7 @@
         <v>73</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>70</v>
@@ -2753,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>138</v>
@@ -2762,13 +2755,13 @@
         <v>73</v>
       </c>
       <c r="I37" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>130</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2788,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>97</v>
@@ -2797,7 +2790,7 @@
         <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2817,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>96</v>
@@ -2826,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
